--- a/database/sidis/expdata/3715.xlsx
+++ b/database/sidis/expdata/3715.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Desktop/Research Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F70E8EA-5D24-324A-9DC8-96515EEB9391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5396B4-28C3-8F4B-A793-6E180B15C573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="6000" windowWidth="28040" windowHeight="16460" xr2:uid="{B6FC3E23-47D1-3648-A304-47027025521C}"/>
+    <workbookView xWindow="760" yWindow="4460" windowWidth="28040" windowHeight="16460" xr2:uid="{B6FC3E23-47D1-3648-A304-47027025521C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
   <si>
     <t>Q2</t>
   </si>
@@ -94,13 +103,16 @@
   </si>
   <si>
     <t>HERMES</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3961E9D-E133-BF46-8867-9B7EC33E3EE5}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="T2" sqref="T2:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +534,11 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.86</v>
       </c>
@@ -582,8 +597,11 @@
       <c r="S2">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3.17</v>
       </c>
@@ -642,8 +660,11 @@
       <c r="S3">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3.25</v>
       </c>
@@ -702,8 +723,11 @@
       <c r="S4">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3.54</v>
       </c>
@@ -761,8 +785,11 @@
       <c r="S5">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.52</v>
       </c>
@@ -821,8 +848,11 @@
       <c r="S6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.77</v>
       </c>
@@ -881,8 +911,11 @@
       <c r="S7">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2.98</v>
       </c>
@@ -941,8 +974,11 @@
       <c r="S8">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.17</v>
       </c>
@@ -1000,8 +1036,11 @@
       <c r="S9">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2.39</v>
       </c>
@@ -1060,8 +1099,11 @@
       <c r="S10">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2.48</v>
       </c>
@@ -1120,8 +1162,11 @@
       <c r="S11">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.8</v>
       </c>
@@ -1180,8 +1225,11 @@
       <c r="S12">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1239,8 +1287,11 @@
       <c r="S13">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2.37</v>
       </c>
@@ -1299,8 +1350,11 @@
       <c r="S14">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2.39</v>
       </c>
@@ -1359,8 +1413,11 @@
       <c r="S15">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2.5499999999999998</v>
       </c>
@@ -1419,8 +1476,11 @@
       <c r="S16">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.92</v>
       </c>
@@ -1477,6 +1537,9 @@
       </c>
       <c r="S17">
         <v>0.13800000000000001</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
